--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -285,7 +285,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-02-01 ~ 2024-02-29</t>
+          <t>2024-08-01 ~ 2024-08-31</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 03월 11일 18시 12분 58초</t>
+          <t>2024년 09월 04일 19시 03분 29초</t>
         </is>
       </c>
     </row>
@@ -338,22 +338,22 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -363,24 +363,24 @@
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
@@ -395,29 +395,29 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -427,61 +427,61 @@
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" s="8" t="inlineStr">
@@ -491,29 +491,29 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" s="9" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -555,24 +555,24 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
@@ -587,29 +587,29 @@
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="8" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
@@ -690,17 +690,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
@@ -715,29 +715,29 @@
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -747,24 +747,24 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
@@ -779,29 +779,29 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -811,24 +811,24 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
@@ -843,29 +843,29 @@
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -875,29 +875,29 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" s="9" t="inlineStr">
@@ -907,24 +907,24 @@
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
@@ -939,24 +939,24 @@
       </c>
       <c r="F26" s="8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
@@ -971,24 +971,24 @@
       </c>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -1003,24 +1003,24 @@
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
@@ -1035,24 +1035,24 @@
       </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
@@ -1067,29 +1067,29 @@
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1099,29 +1099,29 @@
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -1131,29 +1131,29 @@
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E33" s="9" t="inlineStr">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="F33" s="9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -1195,29 +1195,29 @@
       </c>
       <c r="F34" s="8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D35" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr">
@@ -1227,49 +1227,113 @@
       </c>
       <c r="F35" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
+          <t>토</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
           <t>목</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -285,7 +285,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01 ~ 2024-08-31</t>
+          <t>2024-09-01 ~ 2024-09-30</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 09월 04일 19시 03분 29초</t>
+          <t>2024년 10월 02일 19시 45분 37초</t>
         </is>
       </c>
     </row>
@@ -338,22 +338,22 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -363,24 +363,24 @@
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
@@ -395,24 +395,24 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -427,24 +427,24 @@
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
@@ -459,24 +459,24 @@
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -491,24 +491,24 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D13" s="9" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -555,24 +555,24 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
@@ -587,24 +587,24 @@
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-09-21</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
@@ -683,61 +683,61 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -747,29 +747,29 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" s="9" t="inlineStr">
@@ -779,88 +779,88 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
@@ -875,29 +875,29 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" s="9" t="inlineStr">
@@ -907,24 +907,24 @@
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
@@ -939,24 +939,24 @@
       </c>
       <c r="F26" s="8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
@@ -971,24 +971,24 @@
       </c>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -1003,29 +1003,29 @@
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1035,24 +1035,24 @@
       </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
@@ -1062,29 +1062,29 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
@@ -1099,29 +1099,29 @@
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -1131,29 +1131,29 @@
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" s="9" t="inlineStr">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="F33" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -1195,19 +1195,19 @@
       </c>
       <c r="F34" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D35" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr">
@@ -1227,24 +1227,24 @@
       </c>
       <c r="F35" s="9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -1259,24 +1259,24 @@
       </c>
       <c r="F36" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
@@ -1291,49 +1291,17 @@
       </c>
       <c r="F37" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>목</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" s="8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -285,7 +285,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-01 ~ 2024-09-30</t>
+          <t>2024-10-01 ~ 2024-10-31</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 10월 02일 19시 45분 37초</t>
+          <t>2024년 11월 06일 17시 32분 36초</t>
         </is>
       </c>
     </row>
@@ -338,22 +338,22 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -363,29 +363,29 @@
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -395,24 +395,24 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -427,24 +427,24 @@
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
@@ -459,24 +459,24 @@
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -491,24 +491,24 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" s="9" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -555,24 +555,24 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
@@ -587,24 +587,24 @@
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
@@ -651,24 +651,24 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
@@ -683,61 +683,61 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -747,29 +747,29 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" s="9" t="inlineStr">
@@ -779,88 +779,88 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
@@ -907,29 +907,29 @@
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -939,61 +939,61 @@
       </c>
       <c r="F26" s="8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1003,29 +1003,29 @@
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1035,56 +1035,56 @@
       </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
@@ -1099,24 +1099,24 @@
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="F33" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -1195,24 +1195,24 @@
       </c>
       <c r="F34" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D35" s="9" t="inlineStr">
@@ -1227,29 +1227,29 @@
       </c>
       <c r="F35" s="9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
@@ -1259,24 +1259,24 @@
       </c>
       <c r="F36" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
@@ -1291,17 +1291,49 @@
       </c>
       <c r="F37" s="9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 11월 06일 17시 32분 36초</t>
+          <t>2024년 11월 10일 24시 21분 53초</t>
         </is>
       </c>
     </row>

--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -285,7 +285,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01 ~ 2024-10-31</t>
+          <t>2024-11-01 ~ 2024-11-30</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 11월 10일 24시 21분 53초</t>
+          <t>2024년 12월 08일 16시 45분 54초</t>
         </is>
       </c>
     </row>
@@ -338,17 +338,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -363,29 +363,29 @@
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -395,24 +395,24 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -427,24 +427,24 @@
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
@@ -459,24 +459,24 @@
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -491,19 +491,19 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
@@ -530,17 +530,17 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -555,24 +555,24 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
@@ -582,29 +582,29 @@
       </c>
       <c r="E15" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
@@ -683,24 +683,24 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
@@ -715,29 +715,29 @@
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -747,19 +747,19 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
@@ -786,17 +786,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
@@ -811,29 +811,29 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" s="9" t="inlineStr">
@@ -843,29 +843,29 @@
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -875,29 +875,29 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" s="9" t="inlineStr">
@@ -907,29 +907,29 @@
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -939,157 +939,157 @@
       </c>
       <c r="F26" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1099,24 +1099,24 @@
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="F33" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -1195,24 +1195,24 @@
       </c>
       <c r="F34" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D35" s="9" t="inlineStr">
@@ -1227,19 +1227,19 @@
       </c>
       <c r="F35" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
@@ -1259,24 +1259,24 @@
       </c>
       <c r="F36" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
@@ -1291,49 +1291,17 @@
       </c>
       <c r="F37" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>화</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F38" s="8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/blog/hits/hit_char.xlsx
+++ b/blog/hits/hit_char.xlsx
@@ -285,7 +285,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-11-01 ~ 2024-11-30</t>
+          <t>2024-12-01 ~ 2024-12-31</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024년 12월 08일 16시 45분 54초</t>
+          <t>2025년 01월 10일 01시 32분 28초</t>
         </is>
       </c>
     </row>
@@ -338,17 +338,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -358,34 +358,34 @@
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -395,29 +395,29 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -427,29 +427,29 @@
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
@@ -459,24 +459,24 @@
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -491,29 +491,29 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D13" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" s="9" t="inlineStr">
@@ -523,88 +523,88 @@
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E15" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
@@ -683,24 +683,24 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
@@ -715,29 +715,29 @@
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -747,24 +747,24 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
@@ -779,24 +779,24 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
@@ -811,29 +811,29 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" s="9" t="inlineStr">
@@ -850,22 +850,22 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -875,29 +875,29 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" s="9" t="inlineStr">
@@ -907,19 +907,19 @@
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -939,24 +939,24 @@
       </c>
       <c r="F26" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
@@ -971,56 +971,56 @@
       </c>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
@@ -1030,34 +1030,34 @@
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -1067,29 +1067,29 @@
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1099,29 +1099,29 @@
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="F33" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>목</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -1195,19 +1195,19 @@
       </c>
       <c r="F34" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>수</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D35" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr">
@@ -1227,61 +1227,61 @@
       </c>
       <c r="F35" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F36" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" s="9" t="inlineStr">
@@ -1291,17 +1291,49 @@
       </c>
       <c r="F37" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>일</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
